--- a/5.summarize_status_by_rank_and_action.sql.QC.xlsx
+++ b/5.summarize_status_by_rank_and_action.sql.QC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\github\ICTVonlineDbLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICTVonlineDbLoad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
   <si>
     <t>report</t>
   </si>
@@ -69,9 +69,6 @@
     <t>rename</t>
   </si>
   <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>summarize change types by RANK</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -111,16 +105,22 @@
     <t>species</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>_dest_taxon_rank</t>
-  </si>
-  <si>
     <t>dest_taxnode_id</t>
   </si>
   <si>
     <t>dest_ictv_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>demote</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>rank</t>
   </si>
 </sst>
 </file>
@@ -469,24 +469,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,42 +512,45 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -564,108 +568,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1611</v>
+        <v>203</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="F5">
-        <v>1610</v>
+        <v>203</v>
       </c>
       <c r="G5">
-        <v>1610</v>
+        <v>203</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>3437</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>3435</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>3435</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>191</v>
+      </c>
+      <c r="F8">
+        <v>191</v>
+      </c>
+      <c r="G8">
+        <v>191</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -675,26 +705,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -705,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -720,144 +750,135 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -867,709 +888,838 @@
       </c>
       <c r="J5">
         <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>180</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>250</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>300</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>67</v>
-      </c>
-      <c r="K11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>300</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>400</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J14">
-        <v>25</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>400</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>500</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>807</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>807</v>
+      </c>
+      <c r="I22">
+        <v>807</v>
+      </c>
+      <c r="J22">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
-        <v>44</v>
-      </c>
-      <c r="G16">
-        <v>44</v>
-      </c>
-      <c r="H16">
-        <v>44</v>
-      </c>
-      <c r="I16">
-        <v>42</v>
-      </c>
-      <c r="J16">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>500</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="F17">
-        <v>409</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>409</v>
-      </c>
-      <c r="I17">
-        <v>409</v>
-      </c>
-      <c r="J17">
-        <v>409</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>126</v>
+      </c>
+      <c r="G29">
+        <v>126</v>
+      </c>
+      <c r="H29">
+        <v>126</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2563</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2562</v>
+      </c>
+      <c r="I30">
+        <v>2562</v>
+      </c>
+      <c r="J30">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>500</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>550</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>550</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>600</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>600</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23">
-        <v>104</v>
-      </c>
-      <c r="G23">
-        <v>104</v>
-      </c>
-      <c r="H23">
-        <v>104</v>
-      </c>
-      <c r="I23">
-        <v>98</v>
-      </c>
-      <c r="J23">
-        <v>104</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>600</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24">
-        <v>1045</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1044</v>
-      </c>
-      <c r="I24">
-        <v>1044</v>
-      </c>
-      <c r="J24">
-        <v>1044</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>600</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25">
-        <v>47</v>
-      </c>
-      <c r="G25">
-        <v>47</v>
-      </c>
-      <c r="H25">
-        <v>47</v>
-      </c>
-      <c r="I25">
-        <v>46</v>
-      </c>
-      <c r="J25">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>182</v>
+      </c>
+      <c r="G31">
+        <v>178</v>
+      </c>
+      <c r="H31">
+        <v>178</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
